--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
@@ -507,28 +507,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.299273283610624</v>
+        <v>2.129873611643047</v>
       </c>
       <c r="C2">
-        <v>4.397145091904541</v>
+        <v>4.374120406567602</v>
       </c>
       <c r="D2">
-        <v>-6.703584460184631</v>
+        <v>-6.676533676533722</v>
       </c>
       <c r="E2">
-        <v>0.5646460657517991</v>
+        <v>0.7328629231224563</v>
       </c>
       <c r="F2">
-        <v>2.612846544318612</v>
+        <v>2.115775584009365</v>
       </c>
       <c r="G2">
-        <v>-1.546890424481708</v>
+        <v>-1.350511408339849</v>
       </c>
       <c r="H2">
-        <v>0.3436679375517726</v>
+        <v>0.2956936523014704</v>
       </c>
       <c r="I2">
-        <v>-0.2739206840735269</v>
+        <v>-0.1956967400967722</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-2.063584460184588</v>
+        <v>-2.036533676533679</v>
       </c>
       <c r="C3">
-        <v>1.616767352711417</v>
+        <v>1.784984210082074</v>
       </c>
       <c r="D3">
-        <v>2.469581879811696</v>
+        <v>1.972510919502449</v>
       </c>
       <c r="E3">
-        <v>-1.721890424481733</v>
+        <v>-1.525511408339874</v>
       </c>
       <c r="F3">
-        <v>0.4614940315748739</v>
+        <v>0.4135197463245717</v>
       </c>
       <c r="G3">
-        <v>-0.2234410748624034</v>
+        <v>-0.1452171308856487</v>
       </c>
       <c r="H3">
-        <v>0.2075339438621861</v>
+        <v>-0.2887506797459092</v>
       </c>
       <c r="I3">
-        <v>0.409012021659737</v>
+        <v>0.2381594816468817</v>
       </c>
       <c r="J3">
-        <v>-0.2014049694608026</v>
+        <v>0.097005094808012</v>
       </c>
       <c r="K3">
-        <v>0.903848620538066</v>
+        <v>0.7406577100741492</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,31 +571,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.535353934248196</v>
+        <v>-1.367137076877539</v>
       </c>
       <c r="C4">
-        <v>1.701290521645714</v>
+        <v>1.204219561336467</v>
       </c>
       <c r="D4">
-        <v>0.05310957551827311</v>
+        <v>0.2494885916601319</v>
       </c>
       <c r="E4">
-        <v>0.6675357242148734</v>
+        <v>0.6195614389645712</v>
       </c>
       <c r="F4">
-        <v>-0.01610634840384839</v>
+        <v>0.0621175955729063</v>
       </c>
       <c r="G4">
-        <v>0.2822185531677922</v>
+        <v>-0.2140660704403031</v>
       </c>
       <c r="H4">
-        <v>0.4587010142774222</v>
+        <v>0.2878484742645668</v>
       </c>
       <c r="I4">
-        <v>-0.160591026733519</v>
+        <v>0.1378190375352956</v>
       </c>
       <c r="J4">
-        <v>0.9365146863900123</v>
+        <v>0.7733237759260956</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -603,28 +603,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.4033665443186267</v>
+        <v>-0.0937044159906204</v>
       </c>
       <c r="C5">
-        <v>-0.490480424481722</v>
+        <v>-0.2941014083398632</v>
       </c>
       <c r="D5">
-        <v>1.810494031574878</v>
+        <v>1.762519746324576</v>
       </c>
       <c r="E5">
-        <v>0.240601647421091</v>
+        <v>0.3188255913978457</v>
       </c>
       <c r="F5">
-        <v>0.3053061514919685</v>
+        <v>-0.1909784721161268</v>
       </c>
       <c r="G5">
-        <v>0.4763230787589461</v>
+        <v>0.3054705387460908</v>
       </c>
       <c r="H5">
-        <v>-0.1590984722619979</v>
+        <v>0.1393115920068167</v>
       </c>
       <c r="I5">
-        <v>0.9385471238727974</v>
+        <v>0.7753562134088806</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -632,25 +632,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.23689042448172</v>
+        <v>-1.040511408339861</v>
       </c>
       <c r="C6">
-        <v>3.52149403157489</v>
+        <v>3.473519746324588</v>
       </c>
       <c r="D6">
-        <v>0.8845345507757296</v>
+        <v>0.9627584947524843</v>
       </c>
       <c r="E6">
-        <v>0.3050184823314142</v>
+        <v>-0.1912661412766812</v>
       </c>
       <c r="F6">
-        <v>0.4806483138586436</v>
+        <v>0.3097957738457883</v>
       </c>
       <c r="G6">
-        <v>-0.161395224096558</v>
+        <v>0.1370148401722565</v>
       </c>
       <c r="H6">
-        <v>0.9376893663029342</v>
+        <v>0.7744984558390173</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,34 +658,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.481494031574898</v>
+        <v>1.433519746324596</v>
       </c>
       <c r="C7">
-        <v>0.6841416474210755</v>
+        <v>0.7623655913978302</v>
       </c>
       <c r="D7">
-        <v>1.478286151491969</v>
+        <v>0.9820015278838731</v>
       </c>
       <c r="E7">
-        <v>1.189093078758946</v>
+        <v>1.018240538746091</v>
       </c>
       <c r="F7">
-        <v>0.1180015277380021</v>
+        <v>0.4164115920068167</v>
       </c>
       <c r="G7">
-        <v>1.002577123872797</v>
+        <v>0.8393862134088805</v>
       </c>
       <c r="H7">
-        <v>0.1168838851254733</v>
+        <v>0.733798919738463</v>
       </c>
       <c r="I7">
-        <v>0.4024390243902407</v>
+        <v>0.3261687137008458</v>
       </c>
       <c r="J7">
-        <v>0.01916030534350868</v>
+        <v>0.21</v>
       </c>
       <c r="K7">
-        <v>0.581428571428572</v>
+        <v>0.4863220581229216</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +693,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.155858352578899</v>
+        <v>-1.077634408602145</v>
       </c>
       <c r="C8">
-        <v>-0.1917138485080315</v>
+        <v>-0.6879984721161269</v>
       </c>
       <c r="D8">
-        <v>2.359093078758946</v>
+        <v>2.18824053874609</v>
       </c>
       <c r="E8">
-        <v>1.158001527738002</v>
+        <v>1.456411592006817</v>
       </c>
       <c r="F8">
-        <v>1.322577123872797</v>
+        <v>1.159386213408881</v>
       </c>
       <c r="G8">
-        <v>0.3868838851254733</v>
+        <v>1.003798919738463</v>
       </c>
       <c r="H8">
-        <v>0.4724390243902407</v>
+        <v>0.3961687137008458</v>
       </c>
       <c r="I8">
-        <v>0.0691603053435087</v>
+        <v>0.26</v>
       </c>
       <c r="J8">
-        <v>0.631428571428572</v>
+        <v>0.5363220581229216</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,28 +725,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.283571699402312</v>
+        <v>-0.2127129242057834</v>
       </c>
       <c r="C9">
-        <v>1.011491247326545</v>
+        <v>0.8406387073136894</v>
       </c>
       <c r="D9">
-        <v>0.5046656737441791</v>
+        <v>0.8030757380129937</v>
       </c>
       <c r="E9">
-        <v>1.622462961580944</v>
+        <v>1.459272051117028</v>
       </c>
       <c r="F9">
-        <v>0.7476504478427889</v>
+        <v>1.364565482455779</v>
       </c>
       <c r="G9">
-        <v>0.8892661977970362</v>
+        <v>0.8129958871076413</v>
       </c>
       <c r="H9">
-        <v>0.2926969154114781</v>
+        <v>0.4835366100679694</v>
       </c>
       <c r="I9">
-        <v>0.7174778321803181</v>
+        <v>0.6223713188746678</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,25 +754,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.3990930787589461</v>
+        <v>0.2282405387460907</v>
       </c>
       <c r="C10">
-        <v>0.5784851364712441</v>
+        <v>0.8768952007400587</v>
       </c>
       <c r="D10">
-        <v>1.912577123872797</v>
+        <v>1.74938621340888</v>
       </c>
       <c r="E10">
-        <v>0.8968838851254733</v>
+        <v>1.513798919738463</v>
       </c>
       <c r="F10">
-        <v>0.9921863807807818</v>
+        <v>0.9159160700913869</v>
       </c>
       <c r="G10">
-        <v>0.4267615104209647</v>
+        <v>0.617601205077456</v>
       </c>
       <c r="H10">
-        <v>0.791428571428572</v>
+        <v>0.6963220581229216</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,34 +780,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.5519984722619978</v>
+        <v>-0.2535884079931833</v>
       </c>
       <c r="C11">
-        <v>0.3325771238727974</v>
+        <v>0.1693862134088806</v>
       </c>
       <c r="D11">
-        <v>-0.5431161148745267</v>
+        <v>0.07379891973846298</v>
       </c>
       <c r="E11">
-        <v>0.1524390243902407</v>
+        <v>0.07616871370084576</v>
       </c>
       <c r="F11">
-        <v>0.2891603053435087</v>
+        <v>0.48</v>
       </c>
       <c r="G11">
-        <v>0.851428571428572</v>
+        <v>0.7563220581229215</v>
       </c>
       <c r="H11">
-        <v>0.2710171111748399</v>
+        <v>0.6151022358111976</v>
       </c>
       <c r="I11">
-        <v>0.775632271600231</v>
+        <v>0.7382496413199389</v>
       </c>
       <c r="J11">
-        <v>0.3347871831659499</v>
+        <v>0.4208208668968201</v>
       </c>
       <c r="K11">
-        <v>0.6206497229122814</v>
+        <v>0.2378331735378737</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,31 +815,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2225771238727974</v>
+        <v>0.05938621340888062</v>
       </c>
       <c r="C12">
-        <v>-0.5331161148745267</v>
+        <v>0.08379891973846298</v>
       </c>
       <c r="D12">
-        <v>0.221970652806228</v>
+        <v>0.145700342116833</v>
       </c>
       <c r="E12">
-        <v>0.3609007948914617</v>
+        <v>0.551740489547953</v>
       </c>
       <c r="F12">
-        <v>0.873512040524295</v>
+        <v>0.7784055272186445</v>
       </c>
       <c r="G12">
-        <v>0.1803143147462292</v>
+        <v>0.5243994393825868</v>
       </c>
       <c r="H12">
-        <v>0.6613490023481368</v>
+        <v>0.6239663720678446</v>
       </c>
       <c r="I12">
-        <v>0.1941599749288416</v>
+        <v>0.2801936586597118</v>
       </c>
       <c r="J12">
-        <v>0.4451524432442894</v>
+        <v>0.0623358938698817</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,28 +847,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.3509940722898185</v>
+        <v>0.2659209623231712</v>
       </c>
       <c r="C13">
-        <v>0.2173032901650136</v>
+        <v>0.1410329794756187</v>
       </c>
       <c r="D13">
-        <v>0.2645049946868433</v>
+        <v>0.4553446893433346</v>
       </c>
       <c r="E13">
-        <v>0.932802392929622</v>
+        <v>0.8376958796239715</v>
       </c>
       <c r="F13">
-        <v>0.2874130958257295</v>
+        <v>0.6314982204620873</v>
       </c>
       <c r="G13">
-        <v>0.7213430285250602</v>
+        <v>0.683960398244768</v>
       </c>
       <c r="H13">
-        <v>0.1829770333935032</v>
+        <v>0.2690107171243734</v>
       </c>
       <c r="I13">
-        <v>0.4312815856628233</v>
+        <v>0.04846503628841559</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,25 +876,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.273086857568821</v>
+        <v>0.1968165468794261</v>
       </c>
       <c r="C14">
-        <v>-0.01083969465649132</v>
+        <v>0.18</v>
       </c>
       <c r="D14">
-        <v>0.791428571428572</v>
+        <v>0.6963220581229216</v>
       </c>
       <c r="E14">
-        <v>0.2610171111748399</v>
+        <v>0.6051022358111976</v>
       </c>
       <c r="F14">
-        <v>0.7556322716002311</v>
+        <v>0.7182496413199388</v>
       </c>
       <c r="G14">
-        <v>0.2247871831659499</v>
+        <v>0.3108208668968201</v>
       </c>
       <c r="H14">
-        <v>0.5306497229122814</v>
+        <v>0.1478331735378737</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -902,25 +902,28 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.3708396946564913</v>
+        <v>-0.18</v>
       </c>
       <c r="C15">
-        <v>0.6914285714285719</v>
+        <v>0.5963220581229216</v>
       </c>
       <c r="D15">
-        <v>0.2410171111748399</v>
+        <v>0.5851022358111976</v>
       </c>
       <c r="E15">
-        <v>0.8567799661052694</v>
+        <v>0.8193973358249773</v>
       </c>
       <c r="F15">
-        <v>0.3979680775074187</v>
+        <v>0.4840017612382889</v>
       </c>
       <c r="G15">
-        <v>0.5813332769805371</v>
+        <v>0.1985167276061293</v>
       </c>
       <c r="H15">
-        <v>-0.07991706325214298</v>
+        <v>0.02551376466621769</v>
+      </c>
+      <c r="I15">
+        <v>0.535526637811788</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -928,97 +931,118 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.415428571428572</v>
+        <v>0.3203220581229216</v>
       </c>
       <c r="C16">
-        <v>0.05498845598347929</v>
+        <v>0.399073580619837</v>
       </c>
       <c r="D16">
-        <v>0.6958687198406656</v>
+        <v>0.6584860895603735</v>
       </c>
       <c r="E16">
-        <v>0.3339617829755114</v>
+        <v>0.4199954667063815</v>
       </c>
       <c r="F16">
-        <v>0.6407790808091178</v>
+        <v>0.25796253143471</v>
       </c>
       <c r="G16">
-        <v>-0.01213374733938011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.09329708057898056</v>
+      </c>
+      <c r="H16">
+        <v>0.5766911554241068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.3214929292886639</v>
+        <v>0.02259219534769386</v>
       </c>
       <c r="C17">
-        <v>0.5099901328485194</v>
+        <v>0.4726075025682273</v>
       </c>
       <c r="D17">
-        <v>0.4061437322588163</v>
+        <v>0.4921774159896865</v>
       </c>
       <c r="E17">
-        <v>0.7326419872114158</v>
+        <v>0.349825437837008</v>
       </c>
       <c r="F17">
-        <v>0.03212331069211072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.1375541386104714</v>
+      </c>
+      <c r="G17">
+        <v>0.6272238950261231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.5538847935577611</v>
+        <v>0.516502163277469</v>
       </c>
       <c r="C18">
-        <v>0.3247871831659499</v>
+        <v>0.4108208668968201</v>
       </c>
       <c r="D18">
-        <v>0.7206497229122815</v>
+        <v>0.3378331735378737</v>
       </c>
       <c r="E18">
-        <v>0.04831977022499523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.1537505981433559</v>
+      </c>
+      <c r="F18">
+        <v>0.6666911554241067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.1523883420589938</v>
+        <v>-0.06635465832812365</v>
       </c>
       <c r="C19">
-        <v>0.4106497229122814</v>
+        <v>0.02783317353787368</v>
       </c>
       <c r="D19">
-        <v>-0.09868022977500479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.006750598143355879</v>
+      </c>
+      <c r="E19">
+        <v>0.6966911554241066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.4148795034612291</v>
+        <v>0.03206295408682139</v>
       </c>
       <c r="C20">
-        <v>-0.2119161209897164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.1064852930713557</v>
+      </c>
+      <c r="D20">
+        <v>0.4271648845785767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.1722430723603913</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.06681224444203063</v>
+      </c>
+      <c r="C21">
+        <v>0.4775315349050862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.32386998960715</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Q0</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2020-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-05-15 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-08-25 00:00:00_diff</t>
@@ -464,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,34 +539,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-2.036533676533679</v>
+        <v>-3.02587959343237</v>
       </c>
       <c r="C3">
-        <v>1.784984210082074</v>
+        <v>-1.776533676533679</v>
       </c>
       <c r="D3">
-        <v>1.972510919502449</v>
+        <v>2.832862923122467</v>
       </c>
       <c r="E3">
-        <v>-1.525511408339874</v>
+        <v>2.815775584009379</v>
       </c>
       <c r="F3">
-        <v>0.4135197463245717</v>
+        <v>-1.250511408339877</v>
       </c>
       <c r="G3">
-        <v>-0.1452171308856487</v>
+        <v>0.4135197463245859</v>
       </c>
       <c r="H3">
-        <v>-0.2887506797459092</v>
-      </c>
-      <c r="I3">
-        <v>0.2381594816468817</v>
-      </c>
-      <c r="J3">
-        <v>0.097005094808012</v>
-      </c>
-      <c r="K3">
-        <v>0.7406577100741492</v>
+        <v>-0.1376344086021527</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,31 +565,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.367137076877539</v>
+        <v>-2.036533676533679</v>
       </c>
       <c r="C4">
-        <v>1.204219561336467</v>
+        <v>1.784984210082074</v>
       </c>
       <c r="D4">
-        <v>0.2494885916601319</v>
+        <v>1.972510919502449</v>
       </c>
       <c r="E4">
-        <v>0.6195614389645712</v>
+        <v>-1.525511408339874</v>
       </c>
       <c r="F4">
-        <v>0.0621175955729063</v>
+        <v>0.4135197463245717</v>
       </c>
       <c r="G4">
-        <v>-0.2140660704403031</v>
+        <v>-0.1452171308856487</v>
       </c>
       <c r="H4">
-        <v>0.2878484742645668</v>
+        <v>-0.2887506797459092</v>
       </c>
       <c r="I4">
-        <v>0.1378190375352956</v>
+        <v>0.2381594816468817</v>
       </c>
       <c r="J4">
-        <v>0.7733237759260956</v>
+        <v>0.097005094808012</v>
+      </c>
+      <c r="K4">
+        <v>0.7406577100741492</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -603,28 +600,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.0937044159906204</v>
+        <v>-1.367137076877539</v>
       </c>
       <c r="C5">
-        <v>-0.2941014083398632</v>
+        <v>1.204219561336467</v>
       </c>
       <c r="D5">
-        <v>1.762519746324576</v>
+        <v>0.2494885916601319</v>
       </c>
       <c r="E5">
-        <v>0.3188255913978457</v>
+        <v>0.6195614389645712</v>
       </c>
       <c r="F5">
-        <v>-0.1909784721161268</v>
+        <v>0.0621175955729063</v>
       </c>
       <c r="G5">
-        <v>0.3054705387460908</v>
+        <v>-0.2140660704403031</v>
       </c>
       <c r="H5">
-        <v>0.1393115920068167</v>
+        <v>0.2878484742645668</v>
       </c>
       <c r="I5">
-        <v>0.7753562134088806</v>
+        <v>0.1378190375352956</v>
+      </c>
+      <c r="J5">
+        <v>0.7733237759260956</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -632,25 +632,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.040511408339861</v>
+        <v>-0.0937044159906204</v>
       </c>
       <c r="C6">
-        <v>3.473519746324588</v>
+        <v>-0.2941014083398632</v>
       </c>
       <c r="D6">
-        <v>0.9627584947524843</v>
+        <v>1.762519746324576</v>
       </c>
       <c r="E6">
-        <v>-0.1912661412766812</v>
+        <v>0.3188255913978457</v>
       </c>
       <c r="F6">
-        <v>0.3097957738457883</v>
+        <v>-0.1909784721161268</v>
       </c>
       <c r="G6">
-        <v>0.1370148401722565</v>
+        <v>0.3054705387460908</v>
       </c>
       <c r="H6">
-        <v>0.7744984558390173</v>
+        <v>0.1393115920068167</v>
+      </c>
+      <c r="I6">
+        <v>0.7753562134088806</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,34 +661,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.433519746324596</v>
+        <v>-1.040511408339861</v>
       </c>
       <c r="C7">
-        <v>0.7623655913978302</v>
+        <v>3.473519746324588</v>
       </c>
       <c r="D7">
-        <v>0.9820015278838731</v>
+        <v>0.9627584947524843</v>
       </c>
       <c r="E7">
-        <v>1.018240538746091</v>
+        <v>-0.1912661412766812</v>
       </c>
       <c r="F7">
-        <v>0.4164115920068167</v>
+        <v>0.3097957738457883</v>
       </c>
       <c r="G7">
-        <v>0.8393862134088805</v>
+        <v>0.1370148401722565</v>
       </c>
       <c r="H7">
-        <v>0.733798919738463</v>
-      </c>
-      <c r="I7">
-        <v>0.3261687137008458</v>
-      </c>
-      <c r="J7">
-        <v>0.21</v>
-      </c>
-      <c r="K7">
-        <v>0.4863220581229216</v>
+        <v>0.7744984558390173</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +687,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.077634408602145</v>
+        <v>1.433519746324596</v>
       </c>
       <c r="C8">
-        <v>-0.6879984721161269</v>
+        <v>0.7623655913978302</v>
       </c>
       <c r="D8">
-        <v>2.18824053874609</v>
+        <v>0.9820015278838731</v>
       </c>
       <c r="E8">
-        <v>1.456411592006817</v>
+        <v>1.018240538746091</v>
       </c>
       <c r="F8">
-        <v>1.159386213408881</v>
+        <v>0.4164115920068167</v>
       </c>
       <c r="G8">
-        <v>1.003798919738463</v>
+        <v>0.8393862134088805</v>
       </c>
       <c r="H8">
-        <v>0.3961687137008458</v>
+        <v>0.733798919738463</v>
       </c>
       <c r="I8">
-        <v>0.26</v>
+        <v>0.3261687137008458</v>
       </c>
       <c r="J8">
-        <v>0.5363220581229216</v>
+        <v>0.21</v>
+      </c>
+      <c r="K8">
+        <v>0.4863220581229216</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,28 +722,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.2127129242057834</v>
+        <v>-1.077634408602145</v>
       </c>
       <c r="C9">
-        <v>0.8406387073136894</v>
+        <v>-0.6879984721161269</v>
       </c>
       <c r="D9">
-        <v>0.8030757380129937</v>
+        <v>2.18824053874609</v>
       </c>
       <c r="E9">
-        <v>1.459272051117028</v>
+        <v>1.456411592006817</v>
       </c>
       <c r="F9">
-        <v>1.364565482455779</v>
+        <v>1.159386213408881</v>
       </c>
       <c r="G9">
-        <v>0.8129958871076413</v>
+        <v>1.003798919738463</v>
       </c>
       <c r="H9">
-        <v>0.4835366100679694</v>
+        <v>0.3961687137008458</v>
       </c>
       <c r="I9">
-        <v>0.6223713188746678</v>
+        <v>0.26</v>
+      </c>
+      <c r="J9">
+        <v>0.5363220581229216</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,25 +754,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2282405387460907</v>
+        <v>-0.2127129242057834</v>
       </c>
       <c r="C10">
-        <v>0.8768952007400587</v>
+        <v>0.8406387073136894</v>
       </c>
       <c r="D10">
-        <v>1.74938621340888</v>
+        <v>0.8030757380129937</v>
       </c>
       <c r="E10">
-        <v>1.513798919738463</v>
+        <v>1.459272051117028</v>
       </c>
       <c r="F10">
-        <v>0.9159160700913869</v>
+        <v>1.364565482455779</v>
       </c>
       <c r="G10">
-        <v>0.617601205077456</v>
+        <v>0.8129958871076413</v>
       </c>
       <c r="H10">
-        <v>0.6963220581229216</v>
+        <v>0.4835366100679694</v>
+      </c>
+      <c r="I10">
+        <v>0.6223713188746678</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,34 +783,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.2535884079931833</v>
+        <v>0.2282405387460907</v>
       </c>
       <c r="C11">
-        <v>0.1693862134088806</v>
+        <v>0.8768952007400587</v>
       </c>
       <c r="D11">
-        <v>0.07379891973846298</v>
+        <v>1.74938621340888</v>
       </c>
       <c r="E11">
-        <v>0.07616871370084576</v>
+        <v>1.513798919738463</v>
       </c>
       <c r="F11">
-        <v>0.48</v>
+        <v>0.9159160700913869</v>
       </c>
       <c r="G11">
-        <v>0.7563220581229215</v>
+        <v>0.617601205077456</v>
       </c>
       <c r="H11">
-        <v>0.6151022358111976</v>
-      </c>
-      <c r="I11">
-        <v>0.7382496413199389</v>
-      </c>
-      <c r="J11">
-        <v>0.4208208668968201</v>
-      </c>
-      <c r="K11">
-        <v>0.2378331735378737</v>
+        <v>0.6963220581229216</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,31 +809,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.05938621340888062</v>
+        <v>-0.2535884079931833</v>
       </c>
       <c r="C12">
-        <v>0.08379891973846298</v>
+        <v>0.1693862134088806</v>
       </c>
       <c r="D12">
-        <v>0.145700342116833</v>
+        <v>0.07379891973846298</v>
       </c>
       <c r="E12">
-        <v>0.551740489547953</v>
+        <v>0.07616871370084576</v>
       </c>
       <c r="F12">
-        <v>0.7784055272186445</v>
+        <v>0.48</v>
       </c>
       <c r="G12">
-        <v>0.5243994393825868</v>
+        <v>0.7563220581229215</v>
       </c>
       <c r="H12">
-        <v>0.6239663720678446</v>
+        <v>0.6151022358111976</v>
       </c>
       <c r="I12">
-        <v>0.2801936586597118</v>
+        <v>0.7382496413199389</v>
       </c>
       <c r="J12">
-        <v>0.0623358938698817</v>
+        <v>0.4208208668968201</v>
+      </c>
+      <c r="K12">
+        <v>0.2378331735378737</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,28 +844,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2659209623231712</v>
+        <v>0.05938621340888062</v>
       </c>
       <c r="C13">
-        <v>0.1410329794756187</v>
+        <v>0.08379891973846298</v>
       </c>
       <c r="D13">
-        <v>0.4553446893433346</v>
+        <v>0.145700342116833</v>
       </c>
       <c r="E13">
-        <v>0.8376958796239715</v>
+        <v>0.551740489547953</v>
       </c>
       <c r="F13">
-        <v>0.6314982204620873</v>
+        <v>0.7784055272186445</v>
       </c>
       <c r="G13">
-        <v>0.683960398244768</v>
+        <v>0.5243994393825868</v>
       </c>
       <c r="H13">
-        <v>0.2690107171243734</v>
+        <v>0.6239663720678446</v>
       </c>
       <c r="I13">
-        <v>0.04846503628841559</v>
+        <v>0.2801936586597118</v>
+      </c>
+      <c r="J13">
+        <v>0.0623358938698817</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,25 +876,28 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.1968165468794261</v>
+        <v>0.2659209623231712</v>
       </c>
       <c r="C14">
-        <v>0.18</v>
+        <v>0.1410329794756187</v>
       </c>
       <c r="D14">
-        <v>0.6963220581229216</v>
+        <v>0.4553446893433346</v>
       </c>
       <c r="E14">
-        <v>0.6051022358111976</v>
+        <v>0.8376958796239715</v>
       </c>
       <c r="F14">
-        <v>0.7182496413199388</v>
+        <v>0.6314982204620873</v>
       </c>
       <c r="G14">
-        <v>0.3108208668968201</v>
+        <v>0.683960398244768</v>
       </c>
       <c r="H14">
-        <v>0.1478331735378737</v>
+        <v>0.2690107171243734</v>
+      </c>
+      <c r="I14">
+        <v>0.04846503628841559</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -902,28 +905,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.18</v>
+        <v>0.1968165468794261</v>
       </c>
       <c r="C15">
-        <v>0.5963220581229216</v>
+        <v>0.18</v>
       </c>
       <c r="D15">
-        <v>0.5851022358111976</v>
+        <v>0.6963220581229216</v>
       </c>
       <c r="E15">
-        <v>0.8193973358249773</v>
+        <v>0.6051022358111976</v>
       </c>
       <c r="F15">
-        <v>0.4840017612382889</v>
+        <v>0.7182496413199388</v>
       </c>
       <c r="G15">
-        <v>0.1985167276061293</v>
+        <v>0.3108208668968201</v>
       </c>
       <c r="H15">
-        <v>0.02551376466621769</v>
-      </c>
-      <c r="I15">
-        <v>0.535526637811788</v>
+        <v>0.1478331735378737</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -931,117 +931,146 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3203220581229216</v>
+        <v>-0.18</v>
       </c>
       <c r="C16">
-        <v>0.399073580619837</v>
+        <v>0.5963220581229216</v>
       </c>
       <c r="D16">
-        <v>0.6584860895603735</v>
+        <v>0.5851022358111976</v>
       </c>
       <c r="E16">
-        <v>0.4199954667063815</v>
+        <v>0.8193973358249773</v>
       </c>
       <c r="F16">
-        <v>0.25796253143471</v>
+        <v>0.4840017612382889</v>
       </c>
       <c r="G16">
-        <v>0.09329708057898056</v>
+        <v>0.1985167276061293</v>
       </c>
       <c r="H16">
-        <v>0.5766911554241068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02551376466621769</v>
+      </c>
+      <c r="I16">
+        <v>0.535526637811788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.02259219534769386</v>
+        <v>0.3203220581229216</v>
       </c>
       <c r="C17">
-        <v>0.4726075025682273</v>
+        <v>0.399073580619837</v>
       </c>
       <c r="D17">
-        <v>0.4921774159896865</v>
+        <v>0.6584860895603735</v>
       </c>
       <c r="E17">
-        <v>0.349825437837008</v>
+        <v>0.4199954667063815</v>
       </c>
       <c r="F17">
-        <v>0.1375541386104714</v>
+        <v>0.25796253143471</v>
       </c>
       <c r="G17">
-        <v>0.6272238950261231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.09329708057898056</v>
+      </c>
+      <c r="H17">
+        <v>0.5766911554241068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.516502163277469</v>
+        <v>0.02259219534769386</v>
       </c>
       <c r="C18">
-        <v>0.4108208668968201</v>
+        <v>0.4726075025682273</v>
       </c>
       <c r="D18">
-        <v>0.3378331735378737</v>
+        <v>0.4921774159896865</v>
       </c>
       <c r="E18">
-        <v>0.1537505981433559</v>
+        <v>0.349825437837008</v>
       </c>
       <c r="F18">
-        <v>0.6666911554241067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.1375541386104714</v>
+      </c>
+      <c r="G18">
+        <v>0.6272238950261231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.06635465832812365</v>
+        <v>0.516502163277469</v>
       </c>
       <c r="C19">
-        <v>0.02783317353787368</v>
+        <v>0.4108208668968201</v>
       </c>
       <c r="D19">
-        <v>0.006750598143355879</v>
+        <v>0.3378331735378737</v>
       </c>
       <c r="E19">
-        <v>0.6966911554241066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.1537505981433559</v>
+      </c>
+      <c r="F19">
+        <v>0.6666911554241067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.03206295408682139</v>
+        <v>-0.06635465832812365</v>
       </c>
       <c r="C20">
-        <v>-0.1064852930713557</v>
+        <v>0.02783317353787368</v>
       </c>
       <c r="D20">
-        <v>0.4271648845785767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.006750598143355879</v>
+      </c>
+      <c r="E20">
+        <v>0.6966911554241066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.06681224444203063</v>
+        <v>0.03206295408682139</v>
       </c>
       <c r="C21">
-        <v>0.4775315349050862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.1064852930713557</v>
+      </c>
+      <c r="D21">
+        <v>0.4271648845785767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.06681224444203063</v>
+      </c>
+      <c r="C22">
+        <v>0.4775315349050862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>0.32386998960715</v>
       </c>
     </row>

--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Q0</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2025-05-23 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-08-22 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,6 +1077,11 @@
         <v>0.32386998960715</v>
       </c>
     </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_latest.xlsx
@@ -955,10 +955,13 @@
         <v>0.02551376466621769</v>
       </c>
       <c r="I16">
-        <v>0.535526637811788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.468739117536998</v>
+      </c>
+      <c r="J16">
+        <v>0.2150495036779461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -981,10 +984,13 @@
         <v>0.09329708057898056</v>
       </c>
       <c r="H17">
-        <v>0.5766911554241068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.5099036351493167</v>
+      </c>
+      <c r="I17">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1004,10 +1010,13 @@
         <v>0.1375541386104714</v>
       </c>
       <c r="G18">
-        <v>0.6272238950261231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.5604363747513331</v>
+      </c>
+      <c r="H18">
+        <v>0.3087982760018804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,10 +1033,13 @@
         <v>0.1537505981433559</v>
       </c>
       <c r="F19">
-        <v>0.6666911554241067</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.5999036351493168</v>
+      </c>
+      <c r="G19">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1041,10 +1053,13 @@
         <v>0.006750598143355879</v>
       </c>
       <c r="E20">
-        <v>0.6966911554241066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.6299036351493167</v>
+      </c>
+      <c r="F20">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1055,10 +1070,13 @@
         <v>-0.1064852930713557</v>
       </c>
       <c r="D21">
-        <v>0.4271648845785767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.3603773643037867</v>
+      </c>
+      <c r="E21">
+        <v>0.1088966743764388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1066,20 +1084,29 @@
         <v>-0.06681224444203063</v>
       </c>
       <c r="C22">
-        <v>0.4775315349050862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.4107440146302961</v>
+      </c>
+      <c r="D22">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.32386998960715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.25708246933236</v>
+      </c>
+      <c r="C23">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.0959495356205764</v>
       </c>
     </row>
   </sheetData>
